--- a/sov/proj_02/Data_02.xlsx
+++ b/sov/proj_02/Data_02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programming\R\sov\proj_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programming\Py\sov\proj_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{668E19AE-F0AD-45BE-A5AF-42488CCBDA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8878F08E-D15F-44CE-AC28-A614D85DB9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8415" yWindow="2550" windowWidth="28365" windowHeight="16305" xr2:uid="{DE67C0CD-2877-4965-A94D-22D205E78752}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -579,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2463648A-37D4-4730-B2D8-98DB6548A5AC}">
   <dimension ref="A1:D361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:A121"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362:XFD362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
